--- a/data/TestRetail.xlsx
+++ b/data/TestRetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OpenClassrooms\data\P5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscao\Google Drive\Jupyter\GIT\Projet5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Online Retail" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +474,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>536333</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43101.351388888892</v>
+      </c>
+      <c r="F3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G3" s="8">
+        <v>17851</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
